--- a/HRBackend/output/Eyad.xlsx
+++ b/HRBackend/output/Eyad.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>AC-No</v>
+        <v>AC-No.</v>
       </c>
       <c r="B1" t="str">
         <v>Name</v>
@@ -438,8 +438,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>21</v>
+      <c r="A2" t="str">
+        <v>83</v>
       </c>
       <c r="B2" t="str">
         <v>Eyad</v>
@@ -448,19 +448,19 @@
         <v>21-Dec-22</v>
       </c>
       <c r="D2" t="str">
-        <v>10:52</v>
+        <v/>
       </c>
       <c r="E2" t="str">
-        <v>17:11</v>
+        <v/>
       </c>
       <c r="F2" t="str">
-        <v>01:42</v>
+        <v/>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -469,12 +469,12 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>21</v>
+      <c r="A3" t="str">
+        <v>83</v>
       </c>
       <c r="B3" t="str">
         <v>Eyad</v>
@@ -483,16 +483,16 @@
         <v>22-Dec-22</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v>True</v>
@@ -504,12 +504,12 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>21</v>
+      <c r="A4" t="str">
+        <v>83</v>
       </c>
       <c r="B4" t="str">
         <v>Eyad</v>
@@ -518,16 +518,16 @@
         <v>25-Dec-22</v>
       </c>
       <c r="D4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G4" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v>True</v>
@@ -539,12 +539,12 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>21</v>
+      <c r="A5" t="str">
+        <v>83</v>
       </c>
       <c r="B5" t="str">
         <v>Eyad</v>
@@ -553,16 +553,16 @@
         <v>26-Dec-22</v>
       </c>
       <c r="D5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <v>True</v>
@@ -574,12 +574,12 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>21</v>
+      <c r="A6" t="str">
+        <v>83</v>
       </c>
       <c r="B6" t="str">
         <v>Eyad</v>
@@ -588,16 +588,16 @@
         <v>27-Dec-22</v>
       </c>
       <c r="D6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <v>True</v>
@@ -609,12 +609,12 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>21</v>
+      <c r="A7" t="str">
+        <v>83</v>
       </c>
       <c r="B7" t="str">
         <v>Eyad</v>
@@ -623,19 +623,19 @@
         <v>28-Dec-22</v>
       </c>
       <c r="D7" t="str">
-        <v>10:19</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>15:19</v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v>01:09</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>01:41</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -644,12 +644,12 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>21</v>
+      <c r="A8" t="str">
+        <v>83</v>
       </c>
       <c r="B8" t="str">
         <v>Eyad</v>
@@ -658,19 +658,19 @@
         <v>29-Dec-22</v>
       </c>
       <c r="D8" t="str">
-        <v>09:02</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>15:35</v>
+        <v/>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>01:25</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -679,12 +679,12 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <v>21</v>
+      <c r="A9" t="str">
+        <v>83</v>
       </c>
       <c r="B9" t="str">
         <v>Eyad</v>
@@ -693,19 +693,19 @@
         <v>01-Jan-23</v>
       </c>
       <c r="D9" t="str">
-        <v>09:30</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>16:59</v>
+        <v/>
       </c>
       <c r="F9" t="str">
-        <v>00:20</v>
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v>00:01</v>
+        <v/>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -714,12 +714,12 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>21</v>
+      <c r="A10" t="str">
+        <v>83</v>
       </c>
       <c r="B10" t="str">
         <v>Eyad</v>
@@ -728,16 +728,16 @@
         <v>02-Jan-23</v>
       </c>
       <c r="D10" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F10" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H10" t="str">
         <v>True</v>
@@ -749,12 +749,12 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <v>21</v>
+      <c r="A11" t="str">
+        <v>83</v>
       </c>
       <c r="B11" t="str">
         <v>Eyad</v>
@@ -763,16 +763,16 @@
         <v>03-Jan-23</v>
       </c>
       <c r="D11" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H11" t="str">
         <v>True</v>
@@ -784,12 +784,12 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <v>21</v>
+      <c r="A12" t="str">
+        <v>83</v>
       </c>
       <c r="B12" t="str">
         <v>Eyad</v>
@@ -798,16 +798,16 @@
         <v>04-Jan-23</v>
       </c>
       <c r="D12" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F12" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H12" t="str">
         <v>True</v>
@@ -819,12 +819,12 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <v>21</v>
+      <c r="A13" t="str">
+        <v>83</v>
       </c>
       <c r="B13" t="str">
         <v>Eyad</v>
@@ -833,19 +833,19 @@
         <v>05-Jan-23</v>
       </c>
       <c r="D13" t="str">
-        <v>16:34</v>
+        <v/>
       </c>
       <c r="E13" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F13" t="str">
-        <v>07:24</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -854,12 +854,12 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <v>21</v>
+      <c r="A14" t="str">
+        <v>83</v>
       </c>
       <c r="B14" t="str">
         <v>Eyad</v>
@@ -868,16 +868,16 @@
         <v>08-Jan-23</v>
       </c>
       <c r="D14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H14" t="str">
         <v>True</v>
@@ -889,12 +889,12 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <v>21</v>
+      <c r="A15" t="str">
+        <v>83</v>
       </c>
       <c r="B15" t="str">
         <v>Eyad</v>
@@ -903,19 +903,19 @@
         <v>09-Jan-23</v>
       </c>
       <c r="D15" t="str">
-        <v>11:15</v>
+        <v/>
       </c>
       <c r="E15" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F15" t="str">
-        <v>02:05</v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -924,12 +924,12 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <v>21</v>
+      <c r="A16" t="str">
+        <v>83</v>
       </c>
       <c r="B16" t="str">
         <v>Eyad</v>
@@ -938,16 +938,16 @@
         <v>10-Jan-23</v>
       </c>
       <c r="D16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H16" t="str">
         <v>True</v>
@@ -959,12 +959,12 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <v>21</v>
+      <c r="A17" t="str">
+        <v>83</v>
       </c>
       <c r="B17" t="str">
         <v>Eyad</v>
@@ -973,19 +973,19 @@
         <v>11-Jan-23</v>
       </c>
       <c r="D17" t="str">
-        <v>10:18</v>
+        <v/>
       </c>
       <c r="E17" t="str">
-        <v>12:27</v>
+        <v/>
       </c>
       <c r="F17" t="str">
-        <v>01:08</v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>04:33</v>
+        <v/>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -994,12 +994,12 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <v>21</v>
+      <c r="A18" t="str">
+        <v>83</v>
       </c>
       <c r="B18" t="str">
         <v>Eyad</v>
@@ -1008,19 +1008,19 @@
         <v>12-Jan-23</v>
       </c>
       <c r="D18" t="str">
-        <v>10:22</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>17:01</v>
+        <v/>
       </c>
       <c r="F18" t="str">
-        <v>01:12</v>
+        <v/>
       </c>
       <c r="G18" t="str">
         <v/>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1029,12 +1029,12 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <v>21</v>
+      <c r="A19" t="str">
+        <v>83</v>
       </c>
       <c r="B19" t="str">
         <v>Eyad</v>
@@ -1043,19 +1043,19 @@
         <v>15-Jan-23</v>
       </c>
       <c r="D19" t="str">
-        <v>09:45</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>16:03</v>
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v>00:35</v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>00:57</v>
+        <v/>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1064,12 +1064,12 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <v>21</v>
+      <c r="A20" t="str">
+        <v>83</v>
       </c>
       <c r="B20" t="str">
         <v>Eyad</v>
@@ -1078,16 +1078,16 @@
         <v>16-Jan-23</v>
       </c>
       <c r="D20" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F20" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H20" t="str">
         <v>True</v>
@@ -1099,12 +1099,12 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <v>21</v>
+      <c r="A21" t="str">
+        <v>83</v>
       </c>
       <c r="B21" t="str">
         <v>Eyad</v>
@@ -1113,16 +1113,16 @@
         <v>17-Jan-23</v>
       </c>
       <c r="D21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H21" t="str">
         <v>True</v>
@@ -1134,12 +1134,12 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="str">
+        <v>83</v>
       </c>
       <c r="B22" t="str">
         <v>Eyad</v>
@@ -1148,16 +1148,16 @@
         <v>18-Jan-23</v>
       </c>
       <c r="D22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="E22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H22" t="str">
         <v>True</v>
@@ -1169,12 +1169,12 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <v>21</v>
+      <c r="A23" t="str">
+        <v>83</v>
       </c>
       <c r="B23" t="str">
         <v>Eyad</v>
@@ -1183,19 +1183,19 @@
         <v>19-Jan-23</v>
       </c>
       <c r="D23" t="str">
-        <v>16:42</v>
+        <v/>
       </c>
       <c r="E23" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="F23" t="str">
-        <v>07:32</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -1204,7 +1204,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v>promech12</v>
+        <v>promech</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/output/Eyad.xlsx
+++ b/HRBackend/output/Eyad.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>AC-No.</v>
+        <v>AC-No</v>
       </c>
       <c r="B1" t="str">
         <v>Name</v>
@@ -438,8 +438,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>83</v>
+      <c r="A2">
+        <v>21</v>
       </c>
       <c r="B2" t="str">
         <v>Eyad</v>
@@ -448,19 +448,19 @@
         <v>21-Dec-22</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>10:52</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>17:11</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>01:42</v>
       </c>
       <c r="G2" t="str">
         <v/>
       </c>
       <c r="H2" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -469,12 +469,12 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>83</v>
+      <c r="A3">
+        <v>21</v>
       </c>
       <c r="B3" t="str">
         <v>Eyad</v>
@@ -483,16 +483,16 @@
         <v>22-Dec-22</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
         <v>True</v>
@@ -504,12 +504,12 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>83</v>
+      <c r="A4">
+        <v>21</v>
       </c>
       <c r="B4" t="str">
         <v>Eyad</v>
@@ -518,16 +518,16 @@
         <v>25-Dec-22</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H4" t="str">
         <v>True</v>
@@ -539,12 +539,12 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>83</v>
+      <c r="A5">
+        <v>21</v>
       </c>
       <c r="B5" t="str">
         <v>Eyad</v>
@@ -553,16 +553,16 @@
         <v>26-Dec-22</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H5" t="str">
         <v>True</v>
@@ -574,12 +574,12 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>83</v>
+      <c r="A6">
+        <v>21</v>
       </c>
       <c r="B6" t="str">
         <v>Eyad</v>
@@ -588,16 +588,16 @@
         <v>27-Dec-22</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H6" t="str">
         <v>True</v>
@@ -609,12 +609,12 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>83</v>
+      <c r="A7">
+        <v>21</v>
       </c>
       <c r="B7" t="str">
         <v>Eyad</v>
@@ -623,19 +623,19 @@
         <v>28-Dec-22</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>10:19</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>15:19</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>01:09</v>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>01:41</v>
       </c>
       <c r="H7" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -644,12 +644,12 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>83</v>
+      <c r="A8">
+        <v>21</v>
       </c>
       <c r="B8" t="str">
         <v>Eyad</v>
@@ -658,19 +658,19 @@
         <v>29-Dec-22</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>09:02</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>15:35</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v/>
+        <v>01:25</v>
       </c>
       <c r="H8" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -679,12 +679,12 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>83</v>
+      <c r="A9">
+        <v>21</v>
       </c>
       <c r="B9" t="str">
         <v>Eyad</v>
@@ -693,19 +693,19 @@
         <v>01-Jan-23</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>09:30</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>16:59</v>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v>00:20</v>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v>00:01</v>
       </c>
       <c r="H9" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -714,12 +714,12 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>83</v>
+      <c r="A10">
+        <v>21</v>
       </c>
       <c r="B10" t="str">
         <v>Eyad</v>
@@ -728,16 +728,16 @@
         <v>02-Jan-23</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G10" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H10" t="str">
         <v>True</v>
@@ -749,12 +749,12 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>83</v>
+      <c r="A11">
+        <v>21</v>
       </c>
       <c r="B11" t="str">
         <v>Eyad</v>
@@ -763,16 +763,16 @@
         <v>03-Jan-23</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F11" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H11" t="str">
         <v>True</v>
@@ -784,12 +784,12 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>83</v>
+      <c r="A12">
+        <v>21</v>
       </c>
       <c r="B12" t="str">
         <v>Eyad</v>
@@ -798,16 +798,16 @@
         <v>04-Jan-23</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G12" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H12" t="str">
         <v>True</v>
@@ -819,12 +819,12 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>83</v>
+      <c r="A13">
+        <v>21</v>
       </c>
       <c r="B13" t="str">
         <v>Eyad</v>
@@ -833,19 +833,19 @@
         <v>05-Jan-23</v>
       </c>
       <c r="D13" t="str">
-        <v/>
+        <v>16:34</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>07:24</v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H13" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I13" t="str">
         <v/>
@@ -854,12 +854,12 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>83</v>
+      <c r="A14">
+        <v>21</v>
       </c>
       <c r="B14" t="str">
         <v>Eyad</v>
@@ -868,16 +868,16 @@
         <v>08-Jan-23</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H14" t="str">
         <v>True</v>
@@ -889,12 +889,12 @@
         <v/>
       </c>
       <c r="K14" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>83</v>
+      <c r="A15">
+        <v>21</v>
       </c>
       <c r="B15" t="str">
         <v>Eyad</v>
@@ -903,19 +903,19 @@
         <v>09-Jan-23</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>11:15</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v>02:05</v>
       </c>
       <c r="G15" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H15" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I15" t="str">
         <v/>
@@ -924,12 +924,12 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>83</v>
+      <c r="A16">
+        <v>21</v>
       </c>
       <c r="B16" t="str">
         <v>Eyad</v>
@@ -938,16 +938,16 @@
         <v>10-Jan-23</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G16" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H16" t="str">
         <v>True</v>
@@ -959,12 +959,12 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>83</v>
+      <c r="A17">
+        <v>21</v>
       </c>
       <c r="B17" t="str">
         <v>Eyad</v>
@@ -973,19 +973,19 @@
         <v>11-Jan-23</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>10:18</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>12:27</v>
       </c>
       <c r="F17" t="str">
-        <v/>
+        <v>01:08</v>
       </c>
       <c r="G17" t="str">
-        <v/>
+        <v>04:33</v>
       </c>
       <c r="H17" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I17" t="str">
         <v/>
@@ -994,12 +994,12 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>83</v>
+      <c r="A18">
+        <v>21</v>
       </c>
       <c r="B18" t="str">
         <v>Eyad</v>
@@ -1008,19 +1008,19 @@
         <v>12-Jan-23</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>10:22</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>17:01</v>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v>01:12</v>
       </c>
       <c r="G18" t="str">
         <v/>
       </c>
       <c r="H18" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1029,12 +1029,12 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>83</v>
+      <c r="A19">
+        <v>21</v>
       </c>
       <c r="B19" t="str">
         <v>Eyad</v>
@@ -1043,19 +1043,19 @@
         <v>15-Jan-23</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>09:45</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>16:03</v>
       </c>
       <c r="F19" t="str">
-        <v/>
+        <v>00:35</v>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>00:57</v>
       </c>
       <c r="H19" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I19" t="str">
         <v/>
@@ -1064,12 +1064,12 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>83</v>
+      <c r="A20">
+        <v>21</v>
       </c>
       <c r="B20" t="str">
         <v>Eyad</v>
@@ -1078,16 +1078,16 @@
         <v>16-Jan-23</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F20" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H20" t="str">
         <v>True</v>
@@ -1099,12 +1099,12 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>83</v>
+      <c r="A21">
+        <v>21</v>
       </c>
       <c r="B21" t="str">
         <v>Eyad</v>
@@ -1113,16 +1113,16 @@
         <v>17-Jan-23</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H21" t="str">
         <v>True</v>
@@ -1134,12 +1134,12 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>83</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="str">
         <v>Eyad</v>
@@ -1148,16 +1148,16 @@
         <v>18-Jan-23</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H22" t="str">
         <v>True</v>
@@ -1169,12 +1169,12 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>83</v>
+      <c r="A23">
+        <v>21</v>
       </c>
       <c r="B23" t="str">
         <v>Eyad</v>
@@ -1183,19 +1183,19 @@
         <v>19-Jan-23</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>16:42</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F23" t="str">
-        <v/>
+        <v>07:32</v>
       </c>
       <c r="G23" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H23" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I23" t="str">
         <v/>
@@ -1204,7 +1204,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v>promech</v>
+        <v>promech12</v>
       </c>
     </row>
   </sheetData>

--- a/HRBackend/output/Eyad.xlsx
+++ b/HRBackend/output/Eyad.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
         <v>Eyad</v>
       </c>
       <c r="C2" t="str">
-        <v>23-Jul-23</v>
+        <v>21-Aug-23</v>
       </c>
       <c r="D2" t="str">
         <v xml:space="preserve"> </v>
@@ -480,22 +480,22 @@
         <v>Eyad</v>
       </c>
       <c r="C3" t="str">
-        <v>24-Jul-23</v>
+        <v>22-Aug-23</v>
       </c>
       <c r="D3" t="str">
-        <v>09:21</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E3" t="str">
-        <v>16:29</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F3" t="str">
-        <v>00:11</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G3" t="str">
-        <v>00:31</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I3" t="str">
         <v/>
@@ -515,7 +515,7 @@
         <v>Eyad</v>
       </c>
       <c r="C4" t="str">
-        <v>25-Jul-23</v>
+        <v>23-Aug-23</v>
       </c>
       <c r="D4" t="str">
         <v xml:space="preserve"> </v>
@@ -550,22 +550,22 @@
         <v>Eyad</v>
       </c>
       <c r="C5" t="str">
-        <v>26-Jul-23</v>
+        <v>24-Aug-23</v>
       </c>
       <c r="D5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="str">
-        <v>17:04</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="G5" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -585,16 +585,16 @@
         <v>Eyad</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Jul-23</v>
+        <v>27-Aug-23</v>
       </c>
       <c r="D6" t="str">
-        <v>10:15</v>
+        <v>16:05</v>
       </c>
       <c r="E6" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>01:05</v>
+        <v>06:55</v>
       </c>
       <c r="G6" t="str">
         <v xml:space="preserve"> </v>
@@ -620,22 +620,22 @@
         <v>Eyad</v>
       </c>
       <c r="C7" t="str">
-        <v>30-Jul-23</v>
+        <v>28-Aug-23</v>
       </c>
       <c r="D7" t="str">
-        <v>10:03</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E7" t="str">
-        <v>16:40</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F7" t="str">
-        <v>00:53</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G7" t="str">
-        <v>00:20</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -655,22 +655,22 @@
         <v>Eyad</v>
       </c>
       <c r="C8" t="str">
-        <v>31-Jul-23</v>
+        <v>29-Aug-23</v>
       </c>
       <c r="D8" t="str">
-        <v>10:10</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E8" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F8" t="str">
-        <v>01:00</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G8" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -690,22 +690,22 @@
         <v>Eyad</v>
       </c>
       <c r="C9" t="str">
-        <v>01-Aug-23</v>
+        <v>30-Aug-23</v>
       </c>
       <c r="D9" t="str">
-        <v>09:07</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E9" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G9" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -725,7 +725,7 @@
         <v>Eyad</v>
       </c>
       <c r="C10" t="str">
-        <v>02-Aug-23</v>
+        <v>31-Aug-23</v>
       </c>
       <c r="D10" t="str">
         <v xml:space="preserve"> </v>
@@ -760,22 +760,22 @@
         <v>Eyad</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Aug-23</v>
+        <v>03-Sep-23</v>
       </c>
       <c r="D11" t="str">
-        <v>09:45</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E11" t="str">
-        <v>09:45</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F11" t="str">
-        <v>00:35</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G11" t="str">
-        <v>07:15</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -795,22 +795,22 @@
         <v>Eyad</v>
       </c>
       <c r="C12" t="str">
-        <v>06-Aug-23</v>
+        <v>04-Sep-23</v>
       </c>
       <c r="D12" t="str">
-        <v>09:26</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E12" t="str">
-        <v>16:32</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F12" t="str">
-        <v>00:16</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G12" t="str">
-        <v>00:28</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -830,7 +830,7 @@
         <v>Eyad</v>
       </c>
       <c r="C13" t="str">
-        <v>07-Aug-23</v>
+        <v>05-Sep-23</v>
       </c>
       <c r="D13" t="str">
         <v xml:space="preserve"> </v>
@@ -865,7 +865,7 @@
         <v>Eyad</v>
       </c>
       <c r="C14" t="str">
-        <v>08-Aug-23</v>
+        <v>06-Sep-23</v>
       </c>
       <c r="D14" t="str">
         <v xml:space="preserve"> </v>
@@ -900,16 +900,16 @@
         <v>Eyad</v>
       </c>
       <c r="C15" t="str">
-        <v>09-Aug-23</v>
+        <v>07-Sep-23</v>
       </c>
       <c r="D15" t="str">
-        <v>11:15</v>
+        <v>10:05</v>
       </c>
       <c r="E15" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F15" t="str">
-        <v>02:05</v>
+        <v>00:55</v>
       </c>
       <c r="G15" t="str">
         <v xml:space="preserve"> </v>
@@ -935,19 +935,19 @@
         <v>Eyad</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Aug-23</v>
+        <v>10-Sep-23</v>
       </c>
       <c r="D16" t="str">
-        <v>16:48</v>
+        <v>09:46</v>
       </c>
       <c r="E16" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:45</v>
       </c>
       <c r="F16" t="str">
-        <v>07:38</v>
+        <v>00:36</v>
       </c>
       <c r="G16" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:15</v>
       </c>
       <c r="H16" t="str">
         <v/>
@@ -970,19 +970,19 @@
         <v>Eyad</v>
       </c>
       <c r="C17" t="str">
-        <v>13-Aug-23</v>
+        <v>11-Sep-23</v>
       </c>
       <c r="D17" t="str">
-        <v>09:31</v>
+        <v>10:03</v>
       </c>
       <c r="E17" t="str">
-        <v>16:26</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F17" t="str">
-        <v>00:21</v>
+        <v>00:53</v>
       </c>
       <c r="G17" t="str">
-        <v>00:34</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H17" t="str">
         <v/>
@@ -1005,7 +1005,7 @@
         <v>Eyad</v>
       </c>
       <c r="C18" t="str">
-        <v>14-Aug-23</v>
+        <v>12-Sep-23</v>
       </c>
       <c r="D18" t="str">
         <v xml:space="preserve"> </v>
@@ -1040,7 +1040,7 @@
         <v>Eyad</v>
       </c>
       <c r="C19" t="str">
-        <v>15-Aug-23</v>
+        <v>13-Sep-23</v>
       </c>
       <c r="D19" t="str">
         <v xml:space="preserve"> </v>
@@ -1075,16 +1075,16 @@
         <v>Eyad</v>
       </c>
       <c r="C20" t="str">
-        <v>16-Aug-23</v>
+        <v>14-Sep-23</v>
       </c>
       <c r="D20" t="str">
-        <v>09:48</v>
+        <v>09:33</v>
       </c>
       <c r="E20" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F20" t="str">
-        <v>00:38</v>
+        <v>00:23</v>
       </c>
       <c r="G20" t="str">
         <v xml:space="preserve"> </v>
@@ -1110,22 +1110,22 @@
         <v>Eyad</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Aug-23</v>
+        <v>17-Sep-23</v>
       </c>
       <c r="D21" t="str">
-        <v>09:11</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E21" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F21" t="str">
-        <v>00:01</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G21" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -1145,22 +1145,22 @@
         <v>Eyad</v>
       </c>
       <c r="C22" t="str">
-        <v>20-Aug-23</v>
+        <v>18-Sep-23</v>
       </c>
       <c r="D22" t="str">
-        <v xml:space="preserve"> </v>
+        <v>08:38</v>
       </c>
       <c r="E22" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F22" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G22" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H22" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1169,12 +1169,82 @@
         <v/>
       </c>
       <c r="K22" t="str">
+        <v>promech12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Eyad</v>
+      </c>
+      <c r="C23" t="str">
+        <v>19-Sep-23</v>
+      </c>
+      <c r="D23" t="str">
+        <v>09:43</v>
+      </c>
+      <c r="E23" t="str">
+        <v>17:04</v>
+      </c>
+      <c r="F23" t="str">
+        <v>00:33</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>promech12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Eyad</v>
+      </c>
+      <c r="C24" t="str">
+        <v>20-Sep-23</v>
+      </c>
+      <c r="D24" t="str">
+        <v>09:27</v>
+      </c>
+      <c r="E24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F24" t="str">
+        <v>00:17</v>
+      </c>
+      <c r="G24" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
         <v>promech12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/HRBackend/output/Eyad.xlsx
+++ b/HRBackend/output/Eyad.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
         <v>Eyad</v>
       </c>
       <c r="C2" t="str">
-        <v>21-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D2" t="str">
         <v xml:space="preserve"> </v>
@@ -480,22 +480,22 @@
         <v>Eyad</v>
       </c>
       <c r="C3" t="str">
-        <v>22-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:21</v>
       </c>
       <c r="E3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:29</v>
       </c>
       <c r="F3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:11</v>
       </c>
       <c r="G3" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:31</v>
       </c>
       <c r="H3" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I3" t="str">
         <v/>
@@ -515,7 +515,7 @@
         <v>Eyad</v>
       </c>
       <c r="C4" t="str">
-        <v>23-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D4" t="str">
         <v xml:space="preserve"> </v>
@@ -550,22 +550,22 @@
         <v>Eyad</v>
       </c>
       <c r="C5" t="str">
-        <v>24-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" t="str">
-        <v xml:space="preserve"> </v>
+        <v>17:04</v>
       </c>
       <c r="F5" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="G5" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I5" t="str">
         <v/>
@@ -585,16 +585,16 @@
         <v>Eyad</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D6" t="str">
-        <v>16:05</v>
+        <v>10:15</v>
       </c>
       <c r="E6" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F6" t="str">
-        <v>06:55</v>
+        <v>01:05</v>
       </c>
       <c r="G6" t="str">
         <v xml:space="preserve"> </v>
@@ -620,22 +620,22 @@
         <v>Eyad</v>
       </c>
       <c r="C7" t="str">
-        <v>28-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>10:03</v>
       </c>
       <c r="E7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:40</v>
       </c>
       <c r="F7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:53</v>
       </c>
       <c r="G7" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:20</v>
       </c>
       <c r="H7" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I7" t="str">
         <v/>
@@ -655,22 +655,22 @@
         <v>Eyad</v>
       </c>
       <c r="C8" t="str">
-        <v>29-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D8" t="str">
-        <v xml:space="preserve"> </v>
+        <v>10:10</v>
       </c>
       <c r="E8" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F8" t="str">
-        <v xml:space="preserve"> </v>
+        <v>01:00</v>
       </c>
       <c r="G8" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H8" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -690,22 +690,22 @@
         <v>Eyad</v>
       </c>
       <c r="C9" t="str">
-        <v>30-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D9" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:07</v>
       </c>
       <c r="E9" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F9" t="str">
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="G9" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H9" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -725,7 +725,7 @@
         <v>Eyad</v>
       </c>
       <c r="C10" t="str">
-        <v>31-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D10" t="str">
         <v xml:space="preserve"> </v>
@@ -760,22 +760,22 @@
         <v>Eyad</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D11" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:45</v>
       </c>
       <c r="E11" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:45</v>
       </c>
       <c r="F11" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:35</v>
       </c>
       <c r="G11" t="str">
-        <v xml:space="preserve"> </v>
+        <v>07:15</v>
       </c>
       <c r="H11" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I11" t="str">
         <v/>
@@ -795,22 +795,22 @@
         <v>Eyad</v>
       </c>
       <c r="C12" t="str">
-        <v>04-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D12" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:26</v>
       </c>
       <c r="E12" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:32</v>
       </c>
       <c r="F12" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:16</v>
       </c>
       <c r="G12" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:28</v>
       </c>
       <c r="H12" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I12" t="str">
         <v/>
@@ -830,7 +830,7 @@
         <v>Eyad</v>
       </c>
       <c r="C13" t="str">
-        <v>05-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D13" t="str">
         <v xml:space="preserve"> </v>
@@ -865,7 +865,7 @@
         <v>Eyad</v>
       </c>
       <c r="C14" t="str">
-        <v>06-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D14" t="str">
         <v xml:space="preserve"> </v>
@@ -900,16 +900,16 @@
         <v>Eyad</v>
       </c>
       <c r="C15" t="str">
-        <v>07-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D15" t="str">
-        <v>10:05</v>
+        <v>11:15</v>
       </c>
       <c r="E15" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F15" t="str">
-        <v>00:55</v>
+        <v>02:05</v>
       </c>
       <c r="G15" t="str">
         <v xml:space="preserve"> </v>
@@ -935,19 +935,19 @@
         <v>Eyad</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D16" t="str">
-        <v>09:46</v>
+        <v>16:48</v>
       </c>
       <c r="E16" t="str">
-        <v>16:45</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F16" t="str">
-        <v>00:36</v>
+        <v>07:38</v>
       </c>
       <c r="G16" t="str">
-        <v>00:15</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H16" t="str">
         <v/>
@@ -970,19 +970,19 @@
         <v>Eyad</v>
       </c>
       <c r="C17" t="str">
-        <v>11-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D17" t="str">
-        <v>10:03</v>
+        <v>09:31</v>
       </c>
       <c r="E17" t="str">
-        <v xml:space="preserve"> </v>
+        <v>16:26</v>
       </c>
       <c r="F17" t="str">
-        <v>00:53</v>
+        <v>00:21</v>
       </c>
       <c r="G17" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:34</v>
       </c>
       <c r="H17" t="str">
         <v/>
@@ -1005,7 +1005,7 @@
         <v>Eyad</v>
       </c>
       <c r="C18" t="str">
-        <v>12-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D18" t="str">
         <v xml:space="preserve"> </v>
@@ -1040,7 +1040,7 @@
         <v>Eyad</v>
       </c>
       <c r="C19" t="str">
-        <v>13-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D19" t="str">
         <v xml:space="preserve"> </v>
@@ -1075,16 +1075,16 @@
         <v>Eyad</v>
       </c>
       <c r="C20" t="str">
-        <v>14-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D20" t="str">
-        <v>09:33</v>
+        <v>09:48</v>
       </c>
       <c r="E20" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F20" t="str">
-        <v>00:23</v>
+        <v>00:38</v>
       </c>
       <c r="G20" t="str">
         <v xml:space="preserve"> </v>
@@ -1110,22 +1110,22 @@
         <v>Eyad</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>09:11</v>
       </c>
       <c r="E21" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F21" t="str">
-        <v xml:space="preserve"> </v>
+        <v>00:01</v>
       </c>
       <c r="G21" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H21" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I21" t="str">
         <v/>
@@ -1145,22 +1145,22 @@
         <v>Eyad</v>
       </c>
       <c r="C22" t="str">
-        <v>18-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D22" t="str">
-        <v>08:38</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E22" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="F22" t="str">
-        <v/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G22" t="str">
         <v xml:space="preserve"> </v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I22" t="str">
         <v/>
@@ -1169,82 +1169,12 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="str">
-        <v>Eyad</v>
-      </c>
-      <c r="C23" t="str">
-        <v>19-Sep-23</v>
-      </c>
-      <c r="D23" t="str">
-        <v>09:43</v>
-      </c>
-      <c r="E23" t="str">
-        <v>17:04</v>
-      </c>
-      <c r="F23" t="str">
-        <v>00:33</v>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <v>promech12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="str">
-        <v>Eyad</v>
-      </c>
-      <c r="C24" t="str">
-        <v>20-Sep-23</v>
-      </c>
-      <c r="D24" t="str">
-        <v>09:27</v>
-      </c>
-      <c r="E24" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F24" t="str">
-        <v>00:17</v>
-      </c>
-      <c r="G24" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H24" t="str">
-        <v/>
-      </c>
-      <c r="I24" t="str">
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <v/>
-      </c>
-      <c r="K24" t="str">
         <v>promech12</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
   </ignoredErrors>
 </worksheet>
 </file>